--- a/doc/tables/triple-ema-up-results.xlsx
+++ b/doc/tables/triple-ema-up-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasb\Documents\Ausbildung\Bachelor\trading-strategies-implementations\doc\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2F0F51D-FA5B-4087-BF5E-072B859F5B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE039B8A-8B53-4AA3-8A9F-F059F6E28483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4811AFFB-DB31-4B16-82D7-1A4257237391}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4811AFFB-DB31-4B16-82D7-1A4257237391}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Regime</t>
   </si>
@@ -96,6 +96,30 @@
   </si>
   <si>
     <t>$Q_{1}$</t>
+  </si>
+  <si>
+    <t>Number of Trades</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Maximum Gain</t>
+  </si>
+  <si>
+    <t>Maximum Loss</t>
+  </si>
+  <si>
+    <t>Profits Std.</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Trailing Stop Orders</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -169,63 +193,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,18 +600,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2F70D6-56C1-40A1-8A14-165B3D921BE3}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="15"/>
-    <col min="5" max="5" width="11.42578125" style="16"/>
-    <col min="6" max="8" width="11.42578125" style="15"/>
+    <col min="3" max="4" width="11.42578125" style="6"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="6" max="8" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -580,125 +619,455 @@
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="6">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="6">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="4">
+        <v>150</v>
+      </c>
+      <c r="E10" s="5">
+        <v>110</v>
+      </c>
+      <c r="F10" s="4">
+        <v>90</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12">
+        <v>484</v>
+      </c>
+      <c r="D12">
+        <v>875</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12">
+        <v>488</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13">
+        <v>484</v>
+      </c>
+      <c r="D13">
+        <v>-135</v>
+      </c>
+      <c r="E13">
+        <v>170</v>
+      </c>
+      <c r="F13">
+        <v>488</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>290</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-88</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
+      <c r="C16">
+        <v>968</v>
+      </c>
+      <c r="D16">
+        <v>2914</v>
+      </c>
+      <c r="E16">
+        <v>341</v>
+      </c>
+      <c r="F16">
+        <v>488</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C17">
+        <v>968</v>
+      </c>
+      <c r="D17">
+        <v>2075</v>
+      </c>
+      <c r="E17">
+        <v>341</v>
+      </c>
+      <c r="F17">
+        <v>488</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>58</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="16">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -706,8 +1075,13 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
